--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5C461-DF72-4AFA-A8B0-757549FC3B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A2294-0CC1-40EC-B48C-9316F57FFF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,19 +116,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only_getter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="2" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -480,28 +476,25 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,23 +504,23 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -541,25 +534,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -570,28 +560,25 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -607,39 +594,33 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
         <v>1</v>
       </c>
     </row>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A2294-0CC1-40EC-B48C-9316F57FFF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC60CCF-28F2-4C6F-BFEF-60514F82881B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,15 +108,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>only_getter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,68 +471,68 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -537,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -551,13 +555,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -566,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -580,13 +584,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -595,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -609,13 +613,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>0</v>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC60CCF-28F2-4C6F-BFEF-60514F82881B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECB56E-DC8F-448B-8455-50013BBBA79A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +533,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECB56E-DC8F-448B-8455-50013BBBA79A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5A351-4736-48A4-B473-9D66EF2BBA60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpCosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;Cost&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpCostDic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;string, Cost&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,14 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
@@ -632,6 +657,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5A351-4736-48A4-B473-9D66EF2BBA60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C377E63-BEE0-4FDD-A049-E985C2D30AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,30 +133,6 @@
   </si>
   <si>
     <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpCosts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;Cost&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpCostDic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dic&lt;string, Cost&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A11" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,57 +633,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C377E63-BEE0-4FDD-A049-E985C2D30AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409F869-A62A-4966-AB44-4309CA57CB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,14 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A9:XFD11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,68 +480,68 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -546,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -560,13 +564,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -575,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -589,13 +593,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -618,19 +622,48 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Object/Hero.xlsx
+++ b/Game/Resource/Object/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409F869-A62A-4966-AB44-4309CA57CB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EEA82-B63D-47CC-BA93-96B854179341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>HeroState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,6 +674,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
